--- a/Table of Contents.xlsx
+++ b/Table of Contents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpslo-my.sharepoint.com/personal/mgardens_calpoly_edu/Documents/Documents/5 Hobbies/1 Coding/Mechatronics Codebases/ME 507 Codebase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_A1988B86CDEFBB328C2CC6EC53DCD46C2B15F945" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78B406F3-E926-42EA-92AF-0FFB0336BE2B}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_A1988B86CDEFBB328C2CC6EC53DCD46C2B15F945" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F90372C8-5FDF-4A14-977D-E4CE9C635F76}"/>
   <bookViews>
-    <workbookView xWindow="11571" yWindow="2211" windowWidth="17280" windowHeight="14786" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7346" yWindow="3086" windowWidth="17280" windowHeight="10131" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>lab-03 Checkpoint</t>
+  </si>
+  <si>
+    <t>test-12</t>
+  </si>
+  <si>
+    <t>test-11 for other kit</t>
   </si>
 </sst>
 </file>
@@ -469,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -568,6 +574,14 @@
         <v>21</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B8" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B8">

--- a/Table of Contents.xlsx
+++ b/Table of Contents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpslo-my.sharepoint.com/personal/mgardens_calpoly_edu/Documents/Documents/5 Hobbies/1 Coding/Mechatronics Codebases/ME 507 Codebase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_A1988B86CDEFBB328C2CC6EC53DCD46C2B15F945" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F90372C8-5FDF-4A14-977D-E4CE9C635F76}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_A1988B86CDEFBB328C2CC6EC53DCD46C2B15F945" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AC35D8A-275A-43AA-8B75-5FBFC72EEF12}"/>
   <bookViews>
-    <workbookView xWindow="7346" yWindow="3086" windowWidth="17280" windowHeight="10131" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13500" yWindow="2846" windowWidth="12917" windowHeight="13825" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>test-11 for other kit</t>
+  </si>
+  <si>
+    <t>test-13</t>
+  </si>
+  <si>
+    <t>Our board preliminary tests</t>
   </si>
 </sst>
 </file>
@@ -475,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -582,6 +588,14 @@
         <v>23</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B8" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B8">

--- a/Table of Contents.xlsx
+++ b/Table of Contents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpslo-my.sharepoint.com/personal/mgardens_calpoly_edu/Documents/Documents/5 Hobbies/1 Coding/Mechatronics Codebases/ME 507 Codebase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_A1988B86CDEFBB328C2CC6EC53DCD46C2B15F945" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AC35D8A-275A-43AA-8B75-5FBFC72EEF12}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_A1988B86CDEFBB328C2CC6EC53DCD46C2B15F945" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7C6C1A2-539E-4CEC-836E-6C0D6BE48D2A}"/>
   <bookViews>
-    <workbookView xWindow="13500" yWindow="2846" windowWidth="12917" windowHeight="13825" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="13500" yWindow="2846" windowWidth="12917" windowHeight="13825" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,10 +102,10 @@
     <t>test-11 for other kit</t>
   </si>
   <si>
-    <t>test-13</t>
-  </si>
-  <si>
     <t>Our board preliminary tests</t>
+  </si>
+  <si>
+    <t>test-14</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -590,10 +590,10 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Table of Contents.xlsx
+++ b/Table of Contents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpslo-my.sharepoint.com/personal/mgardens_calpoly_edu/Documents/Documents/5 Hobbies/1 Coding/Mechatronics Codebases/ME 507 Codebase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_88ECEB8F233FFE205E1D4EF66F09B3AC2A5FD379" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C3F8956-7ACA-41E1-BA4D-1B3056AAD358}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_88ECEB8F233FFE205E1D4EF66F09B3AC2A5FD379" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0D8925D-380B-4E80-8ECE-E8E51B0AFF15}"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="1586" windowWidth="7500" windowHeight="13825" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="29829" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
     <t>test-18</t>
   </si>
   <si>
-    <t>Working RC</t>
+    <t>Working RC with motor</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>

--- a/Table of Contents.xlsx
+++ b/Table of Contents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpslo-my.sharepoint.com/personal/mgardens_calpoly_edu/Documents/Documents/5 Hobbies/1 Coding/Mechatronics Codebases/ME 507 Codebase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_88ECEB8F233FFE205E1D4EF66F09B3AC2A5FD379" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0D8925D-380B-4E80-8ECE-E8E51B0AFF15}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_88ECEB8F233FFE205E1D4EF66F09B3AC2A5FD379" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD0B2E8D-FE1D-4AD4-9DCD-44A468799315}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="29829" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15934" yWindow="2331" windowWidth="12189" windowHeight="13826" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -123,7 +123,13 @@
     <t>test-18</t>
   </si>
   <si>
-    <t>Working RC with motor</t>
+    <t>Working RC with motor, open-loop</t>
+  </si>
+  <si>
+    <t>test-19</t>
+  </si>
+  <si>
+    <t>RC, closed loop control WIP</t>
   </si>
 </sst>
 </file>
@@ -499,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -638,6 +644,14 @@
         <v>31</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B8" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B8">

--- a/Table of Contents.xlsx
+++ b/Table of Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpslo-my.sharepoint.com/personal/mgardens_calpoly_edu/Documents/Documents/5 Hobbies/1 Coding/Mechatronics Codebases/ME 507 Codebase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_88ECEB8F233FFE205E1D4EF66F09B3AC2A5FD379" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD0B2E8D-FE1D-4AD4-9DCD-44A468799315}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_88ECEB8F233FFE205E1D4EF66F09B3AC2A5FD379" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3F534C5-56EF-40D9-ADC3-8E145A84C7DD}"/>
   <bookViews>
     <workbookView xWindow="15934" yWindow="2331" windowWidth="12189" windowHeight="13826" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,7 +129,7 @@
     <t>test-19</t>
   </si>
   <si>
-    <t>RC, closed loop control WIP</t>
+    <t>RC, closed loop control</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/Table of Contents.xlsx
+++ b/Table of Contents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpslo-my.sharepoint.com/personal/mgardens_calpoly_edu/Documents/Documents/5 Hobbies/1 Coding/Mechatronics Codebases/ME 507 Codebase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_88ECEB8F233FFE205E1D4EF66F09B3AC2A5FD379" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3F534C5-56EF-40D9-ADC3-8E145A84C7DD}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_88ECEB8F233FFE205E1D4EF66F09B3AC2A5FD379" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B90BF0D-AAFF-49F6-99CB-E7D30D763784}"/>
   <bookViews>
     <workbookView xWindow="15934" yWindow="2331" windowWidth="12189" windowHeight="13826" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +18,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$8</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -129,7 +140,7 @@
     <t>test-19</t>
   </si>
   <si>
-    <t>RC, closed loop control</t>
+    <t>RC, closed loop control &amp;&amp; Servo</t>
   </si>
 </sst>
 </file>
@@ -508,7 +519,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/Table of Contents.xlsx
+++ b/Table of Contents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpslo-my.sharepoint.com/personal/mgardens_calpoly_edu/Documents/Documents/5 Hobbies/1 Coding/Mechatronics Codebases/ME 507 Codebase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_88ECEB8F233FFE205E1D4EF66F09B3AC2A5FD379" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B90BF0D-AAFF-49F6-99CB-E7D30D763784}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_88ECEB8F233FFE205E1D4EF66F09B3AC2A5FD379" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C1422A7-DA37-4888-AC47-2351B5465C6E}"/>
   <bookViews>
-    <workbookView xWindow="15934" yWindow="2331" windowWidth="12189" windowHeight="13826" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11871" yWindow="2777" windowWidth="16466" windowHeight="13826" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -140,7 +140,16 @@
     <t>test-19</t>
   </si>
   <si>
-    <t>RC, closed loop control &amp;&amp; Servo</t>
+    <t>RC, closed loop control, servo and C ver of ToF</t>
+  </si>
+  <si>
+    <t>test-22</t>
+  </si>
+  <si>
+    <t>ToF porting stub</t>
+  </si>
+  <si>
+    <t>test-23</t>
   </si>
 </sst>
 </file>
@@ -193,10 +202,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -516,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -663,6 +668,19 @@
         <v>33</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B8" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B8">
